--- a/results/learning-curve.xlsx
+++ b/results/learning-curve.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/papers/nmt-learning-curve-v2/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/papers/004-nmt-learning-curve/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFBC5BC-3986-5643-AE39-1A434952A225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C896C141-2A76-3F41-B4C4-C8D6421F6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{2FDACBD9-D461-894B-88E7-44E24FA6F65A}"/>
+    <workbookView xWindow="12220" yWindow="3240" windowWidth="28800" windowHeight="18000" xr2:uid="{2FDACBD9-D461-894B-88E7-44E24FA6F65A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1-copy" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Experiment</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Fariseq Transformer varbatch</t>
+  </si>
+  <si>
+    <t>RNN+Attention NMT (2016)</t>
+  </si>
+  <si>
+    <t>Transformer NMT (current)</t>
   </si>
 </sst>
 </file>
@@ -129,6 +136,1314 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>English→Spanish</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> BLEU with</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Varying Amounts of Training Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29962928214039181"/>
+          <c:y val="1.5106400716639642E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.986132262368432E-2"/>
+          <c:y val="0.10519228631584455"/>
+          <c:w val="0.88232031913316533"/>
+          <c:h val="0.78219913068211544"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1-copy'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RNN+Attention NMT (2016)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7186520327425728E-3"/>
+                  <c:y val="1.9077464085064096E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3611580308794561E-2"/>
+                  <c:y val="1.8512685619264162E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1571461204314957E-2"/>
+                  <c:y val="2.7226879116585601E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2215671667762053E-2"/>
+                  <c:y val="2.1414294096821163E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2084878575450186E-2"/>
+                  <c:y val="2.2909404764205506E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7123158488444116E-2"/>
+                  <c:y val="2.3683095306988818E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1597331583551956E-2"/>
+                  <c:y val="2.5422499270924468E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8730708582363251E-3"/>
+                  <c:y val="1.1267375260277155E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1-copy'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1-copy'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-DCF6-C346-82D4-3FDC208D4AEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1-copy'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transformer NMT (current)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7987285681454087E-2"/>
+                  <c:y val="-2.5518446894170755E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6277000862628883E-2"/>
+                  <c:y val="-1.7358251296194335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5649904498867498E-2"/>
+                  <c:y val="-2.8429718490727722E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8762832885879296E-2"/>
+                  <c:y val="-2.115215629416508E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5590894028796184E-2"/>
+                  <c:y val="-2.8370300588792391E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7479901555068791E-2"/>
+                  <c:y val="-2.8400317937174971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8858157491379177E-2"/>
+                  <c:y val="-1.3055490563655899E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3128430824177956E-2"/>
+                  <c:y val="-1.3055490563655923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1612978066766561E-2"/>
+                  <c:y val="-2.497648983707159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4023155641207602E-2"/>
+                  <c:y val="-2.5455533821533295E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7348247683250624E-2"/>
+                  <c:y val="-2.752734765476102E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-DCF6-C346-82D4-3FDC208D4AEE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1-copy'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1-copy'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-DCF6-C346-82D4-3FDC208D4AEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1691570479"/>
+        <c:axId val="1672256127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1691570479"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0"/>
+                  <a:t>English tokens in training data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30717729545423916"/>
+              <c:y val="0.94614477653819362"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[&lt;999950]0,&quot;K&quot;;[&lt;999950000]0,,&quot;M&quot;;0,,,&quot;B&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672256127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1672256127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>BLEU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.9704747081571457E-3"/>
+              <c:y val="0.45649717342474277"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691570479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5196116510749038E-2"/>
+          <c:y val="0.1141182014045091"/>
+          <c:w val="0.41068070855497951"/>
+          <c:h val="9.1361744461933833E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -558,15 +1873,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -976,11 +2291,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1311,15 +2626,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1670,15 +2985,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2000,15 +3315,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2762,7 +4077,2776 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0"/>
+              <a:t>English→Spanish</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" baseline="0"/>
+              <a:t> BLEU with</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" baseline="0"/>
+              <a:t> Varying Amounts of Training Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29828559881593775"/>
+          <c:y val="7.4101955234525257E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1205860438991379E-2"/>
+          <c:y val="2.9844889180519103E-2"/>
+          <c:w val="0.91191141479917248"/>
+          <c:h val="0.88062796664126597"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phrase-Based with BigLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5967095388668532E-2"/>
+                  <c:y val="-2.3613790195614246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0782806588918657E-2"/>
+                  <c:y val="-1.4809962194327559E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0646142954660794E-2"/>
+                  <c:y val="-4.6856688864259609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7472794945589886E-2"/>
+                  <c:y val="-1.308568156866447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0253101733004276E-2"/>
+                  <c:y val="-4.303888001648213E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2847112860892388E-2"/>
+                  <c:y val="1.8558982210557014E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phrase-Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0092451594520131E-2"/>
+                  <c:y val="-2.1840567170023601E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.150767933303714E-2"/>
+                  <c:y val="-1.5278857941575982E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9430406485818561E-2"/>
+                  <c:y val="-1.4640741573978319E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3263998250218673E-2"/>
+                  <c:y val="1.8478054826480024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6062992125984254E-3"/>
+                  <c:y val="1.6163240011665209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5393700787401659E-2"/>
+                  <c:y val="2.7737314085739241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1412219305920178E-2"/>
+                  <c:y val="1.8478054826479982E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7152887139107714E-2"/>
+                  <c:y val="1.6163240011665209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9930664916885392E-2"/>
+                  <c:y val="1.6163240011665209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5486220472441045E-2"/>
+                  <c:y val="1.8478054826480024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural (2016)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2475454849247617E-2"/>
+                  <c:y val="-2.6814315434650935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1571461204314957E-2"/>
+                  <c:y val="2.7226879116585601E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5026568005431273E-2"/>
+                  <c:y val="-2.0363316889677085E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9677748614756489E-3"/>
+                  <c:y val="6.9039807524059072E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4375109361329932E-2"/>
+                  <c:y val="1.8478054826480024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1597331583551956E-2"/>
+                  <c:y val="2.5422499270924468E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0069335083114406E-2"/>
+                  <c:y val="-9.299722951297754E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTG Transformer base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5296502139167571E-2"/>
+                  <c:y val="-4.1784643784060554E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9444421491843847E-2"/>
+                  <c:y val="2.3088705362072134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8385185035129473E-2"/>
+                  <c:y val="2.1284338773148323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2118566204644206E-2"/>
+                  <c:y val="2.591405813915244E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7702767790434881E-3"/>
+                  <c:y val="-2.7658968834440669E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3281470525440115E-2"/>
+                  <c:y val="8.2976906503320486E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2337494032694164E-2"/>
+                  <c:y val="-3.1896889106482459E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5555555555555558E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTG Transformer varbatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7987287339342532E-2"/>
+                  <c:y val="-4.6297193660042668E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4420726855848814E-2"/>
+                  <c:y val="2.9641485317116613E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8568739499740547E-2"/>
+                  <c:y val="-2.320761714934471E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6545652855923977E-2"/>
+                  <c:y val="-8.2976906503320486E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2780038238736483E-2"/>
+                  <c:y val="-2.3148161255708472E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8215602929130925E-2"/>
+                  <c:y val="-3.2608835320024093E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2286013274540322E-2"/>
+                  <c:y val="-2.0233297957439597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9850139700279399E-3"/>
+                  <c:y val="-9.370314842578711E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fariseq Transformer varbatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3408402553194291E-3"/>
+                  <c:y val="-9.0207440088386744E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.037424970539967E-2"/>
+                  <c:y val="6.9443612618500716E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3284266596440587E-2"/>
+                  <c:y val="-1.0493638546061708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0141133616210063E-2"/>
+                  <c:y val="-6.0422868609662037E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.134896965183452E-2"/>
+                  <c:y val="-5.0707523752165538E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7222222222222224E-2"/>
+                  <c:y val="-2.3148148148148168E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2950094797202224E-2"/>
+                  <c:y val="-4.6650226640204073E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4481765965392285E-2"/>
+                  <c:y val="-3.4583511465078154E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.138632611996783E-2"/>
+                  <c:y val="-3.3702126844031073E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0486902846261675E-2"/>
+                  <c:y val="-2.8110877183506817E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-FF72-0345-AFEB-79A3F8A83318}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3014583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6037890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12058508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24117683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48225943</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96476318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192958567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385873789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-FF72-0345-AFEB-79A3F8A83318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1691570479"/>
+        <c:axId val="1672256127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1691570479"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0"/>
+                  <a:t>English tokens in training data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34140858980432454"/>
+              <c:y val="0.95547749308865249"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[&lt;999950]0,&quot;K&quot;;[&lt;999950000]0,,&quot;M&quot;;0,,,&quot;B&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672256127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1672256127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="38"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>BLEU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.9704747081571457E-3"/>
+              <c:y val="0.45649717342474277"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691570479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52539537883836651"/>
+          <c:y val="0.56982882067425833"/>
+          <c:w val="0.38257295338423947"/>
+          <c:h val="0.3085742889694334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3318,7 +7402,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38001</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40641</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959CB291-F930-4942-BE22-B46EF8203AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3351,6 +8510,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>829733</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9265AFB-FF8F-8F42-9490-5F94A7B999DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3655,11 +8852,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32518D03-F2FF-9F4C-8EE3-3608E9EC0C27}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14355</v>
+      </c>
+      <c r="C2" s="3">
+        <v>377630</v>
+      </c>
+      <c r="D2" s="3">
+        <v>413763</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28710</v>
+      </c>
+      <c r="C3" s="3">
+        <v>753601</v>
+      </c>
+      <c r="D3" s="3">
+        <v>828125</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>57421</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1507354</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1658098</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>114843</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3014583</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3315885</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>229686</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6037890</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6643336</v>
+      </c>
+      <c r="E6" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>459373</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12058508</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13272230</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>918747</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24117683</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26545027</v>
+      </c>
+      <c r="E8" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1837495</v>
+      </c>
+      <c r="C9" s="3">
+        <v>48225943</v>
+      </c>
+      <c r="D9" s="3">
+        <v>53089185</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3674990</v>
+      </c>
+      <c r="C10" s="3">
+        <v>96476318</v>
+      </c>
+      <c r="D10" s="3">
+        <v>106197767</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7349981</v>
+      </c>
+      <c r="C11" s="3">
+        <v>192958567</v>
+      </c>
+      <c r="D11" s="3">
+        <v>212393342</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14699962</v>
+      </c>
+      <c r="C12" s="3">
+        <v>385873789</v>
+      </c>
+      <c r="D12" s="3">
+        <v>424693146</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>32.1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>32.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB841B70-AEE3-D94F-B053-E2CF2F2B1D11}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="136" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
